--- a/Treefrog-Mini_R1_BOM.xlsx
+++ b/Treefrog-Mini_R1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Treefrog-Mini R1</t>
   </si>
@@ -60,12 +60,21 @@
     <t xml:space="preserve">Treefrog Solar Bracket - through hole</t>
   </si>
   <si>
-    <t xml:space="preserve">Metal Project Box</t>
+    <t xml:space="preserve">125W60H IP68 Outdoor Electrical Enclosure</t>
+  </si>
+  <si>
+    <t>yongucase.com</t>
   </si>
   <si>
     <t xml:space="preserve">Breather valve</t>
   </si>
   <si>
+    <t xml:space="preserve">Cable Gland - Solar Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Gland - Antenna</t>
+  </si>
+  <si>
     <t>Electronics</t>
   </si>
   <si>
@@ -75,6 +84,18 @@
     <t>lectronz.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Secondary Meshtastic radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS Module for primary radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviromental sensor for primary radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion sensor for primary radio</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTO 3900 mAh Battery Pack with BMS</t>
   </si>
   <si>
@@ -108,7 +129,7 @@
     <t xml:space="preserve">Remington Industries</t>
   </si>
   <si>
-    <t xml:space="preserve">UFL(IPEX/IPX) Mini PCI to N-MALE Pigtail Cable Extension</t>
+    <t xml:space="preserve">SMA Signal splitter</t>
   </si>
   <si>
     <t>Hardware</t>
@@ -133,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -143,13 +164,11 @@
     <font>
       <b/>
       <sz val="18.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -160,13 +179,16 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
       <sz val="11.000000"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -184,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -196,46 +218,7 @@
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
+      <right style="none"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -245,9 +228,7 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left style="none"/>
       <right style="none"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -271,8 +252,12 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -285,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -320,10 +305,10 @@
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -347,16 +332,16 @@
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,19 +354,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -389,21 +374,29 @@
     <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,7 +1104,7 @@
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="21"/>
@@ -1135,13 +1128,13 @@
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14"/>
@@ -1169,11 +1162,11 @@
       <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="15"/>
@@ -1188,14 +1181,20 @@
       <c r="R11" s="17"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="15"/>
@@ -1210,11 +1209,15 @@
       <c r="R12" s="17"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="15"/>
+      <c r="A13" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
       <c r="F13" s="33"/>
@@ -1233,11 +1236,15 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="14"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -1253,11 +1260,15 @@
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="14"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -1276,8 +1287,8 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="14"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -1313,16 +1324,16 @@
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
@@ -1339,185 +1350,283 @@
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="35">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="35">
-        <v>1</v>
-      </c>
-      <c r="D20" s="38" t="s">
+      <c r="B19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="37">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="37">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="35">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="35">
-        <v>1</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="41">
+        <v>1</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="35">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>21</v>
+      <c r="C25" s="41">
+        <v>1</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="41">
+        <v>1</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="35">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="35">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C29" s="41">
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="35">
-        <v>4</v>
-      </c>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="27"/>
     </row>
     <row r="31" ht="14.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="35">
+        <v>39</v>
+      </c>
+      <c r="C31" s="41">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:R1"/>
@@ -1536,17 +1645,17 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:R17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A23:R23"/>
     <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A30:R30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D18" tooltip=""/>
-    <hyperlink r:id="rId2" ref="D19" tooltip=""/>
-    <hyperlink r:id="rId3" ref="D20" tooltip=""/>
-    <hyperlink r:id="rId4" ref="D21" tooltip=""/>
-    <hyperlink r:id="rId5" ref="D22" tooltip=""/>
-    <hyperlink r:id="rId6" ref="D24" tooltip=""/>
-    <hyperlink r:id="rId7" ref="D25" tooltip=""/>
+    <hyperlink r:id="rId1" ref="D12" tooltip=""/>
+    <hyperlink r:id="rId2" ref="D18" tooltip=""/>
+    <hyperlink r:id="rId3" ref="D23" tooltip=""/>
+    <hyperlink r:id="rId4" ref="D24" tooltip=""/>
+    <hyperlink r:id="rId5" ref="D25" tooltip=""/>
+    <hyperlink r:id="rId6" ref="D26" tooltip=""/>
+    <hyperlink r:id="rId7" ref="D28" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Treefrog-Mini_R1_BOM.xlsx
+++ b/Treefrog-Mini_R1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Treefrog-Mini R1</t>
   </si>
@@ -84,7 +84,10 @@
     <t>lectronz.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary Meshtastic radio</t>
+    <t xml:space="preserve">Secondary Meshtastic radio (FakeTec V5)</t>
+  </si>
+  <si>
+    <t>github.com</t>
   </si>
   <si>
     <t xml:space="preserve">GPS Module for primary radio</t>
@@ -109,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">8 dBi Low Profile N-Female Omni Outdoor 915 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 dBi Low Profile N-Female Omni Outdoor 915 MHz</t>
   </si>
   <si>
     <t xml:space="preserve">5W 5V Solar Panel</t>
@@ -182,13 +188,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.000000"/>
-      <color theme="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <u/>
+      <sz val="10.000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -320,10 +328,10 @@
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,10 +340,10 @@
     <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,35 +352,32 @@
     <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -383,20 +388,21 @@
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,7 +920,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.00390625"/>
-    <col customWidth="1" min="2" max="2" width="39.57421875"/>
+    <col customWidth="1" min="2" max="2" width="45.140625"/>
     <col customWidth="1" min="3" max="18" width="20.00390625"/>
   </cols>
   <sheetData>
@@ -1063,36 +1069,36 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -1104,53 +1110,53 @@
       <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
@@ -1165,8 +1171,8 @@
       <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="15"/>
@@ -1181,7 +1187,7 @@
       <c r="R11" s="17"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1193,8 +1199,8 @@
       <c r="D12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="15"/>
@@ -1209,7 +1215,7 @@
       <c r="R12" s="17"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -1243,9 +1249,9 @@
         <v>1</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -1267,9 +1273,9 @@
         <v>1</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -1287,9 +1293,9 @@
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -1303,24 +1309,24 @@
       <c r="R16" s="17"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
@@ -1337,129 +1343,131 @@
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="37">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="37">
-        <v>1</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="B20" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="37">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="B21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="37">
-        <v>1</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="B22" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="36">
+        <v>1</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="41">
         <v>1</v>
@@ -1467,166 +1475,339 @@
       <c r="D23" s="42" t="s">
         <v>21</v>
       </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>27</v>
+      <c r="B24" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="41">
         <v>1</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
         <v>29</v>
       </c>
+      <c r="E24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="41">
-        <v>1</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
+      <c r="B26" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="41">
         <v>1</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
+      <c r="A27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="41">
+        <v>1</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="41" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="B29" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="B29" t="s">
+      <c r="C29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="41">
-        <v>1</v>
-      </c>
+      <c r="D29" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="41">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="41">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B32" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="41">
+        <v>1</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="41">
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="41">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="41">
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" ht="14.25"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+    </row>
     <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:R1"/>
@@ -1645,17 +1826,19 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:R17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A30:R30"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A31:R31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D12" tooltip=""/>
     <hyperlink r:id="rId2" ref="D18" tooltip=""/>
-    <hyperlink r:id="rId3" ref="D23" tooltip=""/>
-    <hyperlink r:id="rId4" ref="D24" tooltip=""/>
-    <hyperlink r:id="rId5" ref="D25" tooltip=""/>
-    <hyperlink r:id="rId6" ref="D26" tooltip=""/>
-    <hyperlink r:id="rId7" ref="D28" tooltip=""/>
+    <hyperlink r:id="rId3" ref="D19" tooltip=""/>
+    <hyperlink r:id="rId4" ref="D23" tooltip=""/>
+    <hyperlink r:id="rId5" ref="D24" tooltip=""/>
+    <hyperlink r:id="rId6" ref="D25" tooltip=""/>
+    <hyperlink r:id="rId7" ref="D26" tooltip=""/>
+    <hyperlink r:id="rId8" ref="D27" tooltip=""/>
+    <hyperlink r:id="rId9" ref="D29" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Treefrog-Mini_R1_BOM.xlsx
+++ b/Treefrog-Mini_R1_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Treefrog-Mini R1</t>
   </si>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">Supporting Vendor</t>
   </si>
   <si>
-    <t xml:space="preserve">Premium Option</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
     <t>lectronz.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Custom PCB with MPPT, LTO, and E22 module support</t>
+  </si>
+  <si>
     <t xml:space="preserve">Secondary Meshtastic radio (FakeTec V5)</t>
   </si>
   <si>
@@ -108,21 +108,27 @@
     <t>store.rokland.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Pick one antenna</t>
+    <t xml:space="preserve">Pick one Antenna</t>
   </si>
   <si>
     <t xml:space="preserve">8 dBi Low Profile N-Female Omni Outdoor 915 MHz</t>
   </si>
   <si>
-    <t xml:space="preserve">10 dBi Low Profile N-Female Omni Outdoor 915 MHz</t>
-  </si>
-  <si>
     <t xml:space="preserve">5W 5V Solar Panel</t>
   </si>
   <si>
     <t>amazon.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Pick one solar panel or use shore power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Cell BiFacial panel with adjustable angle frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Soruced</t>
+  </si>
+  <si>
     <t>Wiring</t>
   </si>
   <si>
@@ -136,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">SMA Signal splitter</t>
+  </si>
+  <si>
+    <t>www.ebay.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might be trash. You've been warned :)</t>
   </si>
   <si>
     <t>Hardware</t>
@@ -185,17 +197,17 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
-      <sz val="10.000000"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
@@ -278,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -322,87 +334,71 @@
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,7 +916,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.00390625"/>
-    <col customWidth="1" min="2" max="2" width="45.140625"/>
+    <col customWidth="1" min="2" max="2" width="51.00390625"/>
     <col customWidth="1" min="3" max="18" width="20.00390625"/>
   </cols>
   <sheetData>
@@ -1008,7 +1004,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -1020,593 +1016,613 @@
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="36">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="36">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="41">
-        <v>1</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
+      <c r="A23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="41">
-        <v>1</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="A24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="41">
-        <v>1</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="41">
-        <v>1</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="41">
-        <v>1</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
+      <c r="A27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="26"/>
@@ -1629,216 +1645,167 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="41">
-        <v>1</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="41">
-        <v>1</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="41">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="34">
+        <v>4</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+    </row>
+    <row r="32" s="0" customFormat="1" ht="14.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="34">
         <v>2</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="41">
-        <v>4</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="41">
-        <v>2</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-    </row>
+      <c r="D32"/>
+      <c r="E32" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+    </row>
+    <row r="33" ht="14.25"/>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25"/>
     <row r="36" ht="14.25"/>
-    <row r="37" ht="14.25"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="33">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:R13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="A28:R28"/>
-    <mergeCell ref="A31:R31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D12" tooltip=""/>
-    <hyperlink r:id="rId2" ref="D18" tooltip=""/>
-    <hyperlink r:id="rId3" ref="D19" tooltip=""/>
-    <hyperlink r:id="rId4" ref="D23" tooltip=""/>
-    <hyperlink r:id="rId5" ref="D24" tooltip=""/>
-    <hyperlink r:id="rId6" ref="D25" tooltip=""/>
-    <hyperlink r:id="rId7" ref="D26" tooltip=""/>
-    <hyperlink r:id="rId8" ref="D27" tooltip=""/>
-    <hyperlink r:id="rId9" ref="D29" tooltip=""/>
+    <hyperlink r:id="rId1" ref="D9" tooltip=""/>
+    <hyperlink r:id="rId2" ref="D14" tooltip=""/>
+    <hyperlink r:id="rId3" ref="D16" tooltip=""/>
+    <hyperlink r:id="rId4" ref="D20" tooltip=""/>
+    <hyperlink r:id="rId5" ref="D21" tooltip=""/>
+    <hyperlink r:id="rId6" ref="D22" tooltip=""/>
+    <hyperlink r:id="rId7" ref="D23" tooltip=""/>
+    <hyperlink r:id="rId8" ref="D26" tooltip=""/>
+    <hyperlink r:id="rId9" ref="D27" tooltip=""/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
